--- a/Data/drugs_data_big.xlsx
+++ b/Data/drugs_data_big.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/Medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08600C8-30B1-184C-95C3-29A9571DBD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93615163-DF95-C841-8FED-128B7ED52966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="1160" windowWidth="28040" windowHeight="15960" xr2:uid="{F4AA2BEB-EDFF-5247-8523-487153F35C5B}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{F4AA2BEB-EDFF-5247-8523-487153F35C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="366">
   <si>
     <t>AAS</t>
   </si>
@@ -646,9 +646,6 @@
     <t>bupropiom</t>
   </si>
   <si>
-    <t> Lítio</t>
-  </si>
-  <si>
     <t>Modafinil</t>
   </si>
   <si>
@@ -745,6 +742,429 @@
   </si>
   <si>
     <t>Beta-histina</t>
+  </si>
+  <si>
+    <t>Rasagilina</t>
+  </si>
+  <si>
+    <t>Amantadina</t>
+  </si>
+  <si>
+    <t>interferão beta-1a</t>
+  </si>
+  <si>
+    <t>Primidona</t>
+  </si>
+  <si>
+    <t>Ácido acetilsalicílico</t>
+  </si>
+  <si>
+    <t>Propanolol</t>
+  </si>
+  <si>
+    <t>Escitalopram</t>
+  </si>
+  <si>
+    <t>Bromazepam</t>
+  </si>
+  <si>
+    <t>Azatioprina</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>clorazepato</t>
+  </si>
+  <si>
+    <t>Aminofilina</t>
+  </si>
+  <si>
+    <t>Metamizol magnésico</t>
+  </si>
+  <si>
+    <t>Vitamina B1</t>
+  </si>
+  <si>
+    <t>Loflazepato de etilo</t>
+  </si>
+  <si>
+    <t>Cloridrato de dosupelina</t>
+  </si>
+  <si>
+    <t>Trazodona</t>
+  </si>
+  <si>
+    <t>Naproxeno</t>
+  </si>
+  <si>
+    <t>Cloridrato de amitriptilina</t>
+  </si>
+  <si>
+    <t>Cloridrato de clomipramina</t>
+  </si>
+  <si>
+    <t>Ibuprofeno</t>
+  </si>
+  <si>
+    <t>Melatonina</t>
+  </si>
+  <si>
+    <t>Flurazepam</t>
+  </si>
+  <si>
+    <t>Dexametasona</t>
+  </si>
+  <si>
+    <t>Fluoxetina</t>
+  </si>
+  <si>
+    <t>Etodolac</t>
+  </si>
+  <si>
+    <t>Ezetimiba</t>
+  </si>
+  <si>
+    <t>Estazolam</t>
+  </si>
+  <si>
+    <t>Prednisolona</t>
+  </si>
+  <si>
+    <t>Acido fólico</t>
+  </si>
+  <si>
+    <t>Metilpredisolona</t>
+  </si>
+  <si>
+    <t>Vinburnina</t>
+  </si>
+  <si>
+    <t>Piracetam</t>
+  </si>
+  <si>
+    <t>Tapentadol</t>
+  </si>
+  <si>
+    <t>Alopurinol</t>
+  </si>
+  <si>
+    <t>Montelucaste</t>
+  </si>
+  <si>
+    <t>Ácido ursodesoxicólico</t>
+  </si>
+  <si>
+    <t>Metformina</t>
+  </si>
+  <si>
+    <t>Linagliptina</t>
+  </si>
+  <si>
+    <t>Valeriana officinalis</t>
+  </si>
+  <si>
+    <t>Mononitrato isossorbido</t>
+  </si>
+  <si>
+    <t>Fenofibrato</t>
+  </si>
+  <si>
+    <t>Levotiroxina</t>
+  </si>
+  <si>
+    <t>Mononitrato de Isossorbido</t>
+  </si>
+  <si>
+    <t>Ácido fólico</t>
+  </si>
+  <si>
+    <t>ácido alendrónico</t>
+  </si>
+  <si>
+    <t>Clorotalidona</t>
+  </si>
+  <si>
+    <t>Idebenona</t>
+  </si>
+  <si>
+    <t>Furosemida</t>
+  </si>
+  <si>
+    <t>Etinilestradiol + Gestodeno</t>
+  </si>
+  <si>
+    <t>Cloridrato de amilorida</t>
+  </si>
+  <si>
+    <t>Lítio</t>
+  </si>
+  <si>
+    <t>donepezilo</t>
+  </si>
+  <si>
+    <t>levodopa</t>
+  </si>
+  <si>
+    <t>triptano</t>
+  </si>
+  <si>
+    <t>ropinirol</t>
+  </si>
+  <si>
+    <t>Sinemet</t>
+  </si>
+  <si>
+    <t>tetrabenazina</t>
+  </si>
+  <si>
+    <t>migretil</t>
+  </si>
+  <si>
+    <t>selegilina</t>
+  </si>
+  <si>
+    <t>Rasaglina</t>
+  </si>
+  <si>
+    <t>riluzol</t>
+  </si>
+  <si>
+    <t>almogran</t>
+  </si>
+  <si>
+    <t>sinvastatina</t>
+  </si>
+  <si>
+    <t>quetiapina</t>
+  </si>
+  <si>
+    <t>gabapentina</t>
+  </si>
+  <si>
+    <t>atorvastatina</t>
+  </si>
+  <si>
+    <t>topiramato</t>
+  </si>
+  <si>
+    <t>mirtazapino</t>
+  </si>
+  <si>
+    <t>tromalyt</t>
+  </si>
+  <si>
+    <t>clopidogrel</t>
+  </si>
+  <si>
+    <t>venlafaxina</t>
+  </si>
+  <si>
+    <t>diazepam</t>
+  </si>
+  <si>
+    <t>naproxeno</t>
+  </si>
+  <si>
+    <t>escitalopram</t>
+  </si>
+  <si>
+    <t>propanolol</t>
+  </si>
+  <si>
+    <t>olanzapina</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>carbamazepina</t>
+  </si>
+  <si>
+    <t>zyprexo</t>
+  </si>
+  <si>
+    <t>benzodiazepina</t>
+  </si>
+  <si>
+    <t>amitriptilina</t>
+  </si>
+  <si>
+    <t>dabigatrano</t>
+  </si>
+  <si>
+    <t>haloperidol</t>
+  </si>
+  <si>
+    <t>bromazepam</t>
+  </si>
+  <si>
+    <t>plavix</t>
+  </si>
+  <si>
+    <t>lorazepam</t>
+  </si>
+  <si>
+    <t>varfarina</t>
+  </si>
+  <si>
+    <t>clonazepan</t>
+  </si>
+  <si>
+    <t>ditropan</t>
+  </si>
+  <si>
+    <t>trimetazidina</t>
+  </si>
+  <si>
+    <t>tramadol+paracetamol</t>
+  </si>
+  <si>
+    <t>Mirtazapina</t>
+  </si>
+  <si>
+    <t>nortriptilina</t>
+  </si>
+  <si>
+    <t>morfex</t>
+  </si>
+  <si>
+    <t>flunarizina</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>mirtazepino</t>
+  </si>
+  <si>
+    <t>metoclopramida</t>
+  </si>
+  <si>
+    <t>trazodone</t>
+  </si>
+  <si>
+    <t>midazolam</t>
+  </si>
+  <si>
+    <t>propanol</t>
+  </si>
+  <si>
+    <t>lisinopril</t>
+  </si>
+  <si>
+    <t>omeprazol</t>
+  </si>
+  <si>
+    <t>metformino</t>
+  </si>
+  <si>
+    <t>amlodipina</t>
+  </si>
+  <si>
+    <t>losartan</t>
+  </si>
+  <si>
+    <t>pantoprazol</t>
+  </si>
+  <si>
+    <t>glucosamina</t>
+  </si>
+  <si>
+    <t>furosemida</t>
+  </si>
+  <si>
+    <t>enalapril</t>
+  </si>
+  <si>
+    <t>perindopril</t>
+  </si>
+  <si>
+    <t>fenofibrato</t>
+  </si>
+  <si>
+    <t>esomeprazol</t>
+  </si>
+  <si>
+    <t>candesartan</t>
+  </si>
+  <si>
+    <t>telmisartan</t>
+  </si>
+  <si>
+    <t>irbesartan</t>
+  </si>
+  <si>
+    <t>levotiroxina</t>
+  </si>
+  <si>
+    <t>alopurinol</t>
+  </si>
+  <si>
+    <t>colecalciferol</t>
+  </si>
+  <si>
+    <t>biloban</t>
+  </si>
+  <si>
+    <t>pentoxifilina</t>
+  </si>
+  <si>
+    <t>bricanyl</t>
+  </si>
+  <si>
+    <t>monuril</t>
+  </si>
+  <si>
+    <t>ibandrónico</t>
+  </si>
+  <si>
+    <t>Venosmil</t>
+  </si>
+  <si>
+    <t>idebenona</t>
+  </si>
+  <si>
+    <t>buscopam</t>
+  </si>
+  <si>
+    <t>loratadina</t>
+  </si>
+  <si>
+    <t>omperazol</t>
+  </si>
+  <si>
+    <t>ribavirina</t>
+  </si>
+  <si>
+    <t>nurofen</t>
+  </si>
+  <si>
+    <t>digoxina</t>
+  </si>
+  <si>
+    <t>lercadinipino</t>
+  </si>
+  <si>
+    <t>Azopt</t>
+  </si>
+  <si>
+    <t>zanitek</t>
+  </si>
+  <si>
+    <t>indapamida</t>
+  </si>
+  <si>
+    <t>lercanadipina</t>
+  </si>
+  <si>
+    <t>hidroclorotiazida</t>
+  </si>
+  <si>
+    <t>ramipril</t>
+  </si>
+  <si>
+    <t>anti-inflamatório</t>
   </si>
 </sst>
 </file>
@@ -798,15 +1218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58A342-8887-1441-91BB-E9053AEFEACF}">
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205:B226"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="H368" sqref="H368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1646,7 +2063,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B63">
@@ -1654,7 +2071,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B64">
@@ -1662,7 +2079,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B65">
@@ -1670,7 +2087,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B66">
@@ -1678,7 +2095,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B67">
@@ -1686,7 +2103,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B68">
@@ -1842,7 +2259,7 @@
         <v>158</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1850,7 +2267,7 @@
         <v>159</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1890,7 +2307,7 @@
         <v>164</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1898,7 +2315,7 @@
         <v>165</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -1906,7 +2323,7 @@
         <v>166</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -1922,7 +2339,7 @@
         <v>168</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2143,7 +2560,7 @@
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -2151,7 +2568,7 @@
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2159,7 +2576,7 @@
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -2167,7 +2584,7 @@
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2175,7 +2592,7 @@
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2183,7 +2600,7 @@
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -2191,7 +2608,7 @@
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2199,7 +2616,7 @@
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2210,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2218,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2239,7 +2656,7 @@
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2247,7 +2664,7 @@
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2258,15 +2675,15 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2274,7 +2691,7 @@
         <v>49</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2290,7 +2707,7 @@
         <v>35</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -2303,7 +2720,7 @@
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -2327,7 +2744,7 @@
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -2335,7 +2752,7 @@
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -2375,7 +2792,7 @@
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -2383,7 +2800,7 @@
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B155">
         <v>2</v>
@@ -2399,7 +2816,7 @@
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -2415,7 +2832,7 @@
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -2423,7 +2840,7 @@
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -2431,7 +2848,7 @@
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -2455,7 +2872,7 @@
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B164">
         <v>2</v>
@@ -2471,7 +2888,7 @@
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -2487,7 +2904,7 @@
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -2495,7 +2912,7 @@
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -2511,7 +2928,7 @@
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -2631,7 +3048,7 @@
     </row>
     <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -2759,7 +3176,7 @@
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -2767,7 +3184,7 @@
     </row>
     <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -2775,7 +3192,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -2783,7 +3200,7 @@
     </row>
     <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -2955,6 +3372,1166 @@
       </c>
       <c r="B226">
         <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>227</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>232</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>232</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>234</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>235</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>236</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>237</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>238</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>239</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>243</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>244</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>229</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>245</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>246</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>247</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>248</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>249</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>250</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>251</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>252</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>253</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>254</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>255</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>256</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>257</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>258</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>259</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>260</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>261</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>262</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>263</v>
+      </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>264</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>265</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>266</v>
+      </c>
+      <c r="B272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>267</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>268</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>269</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>270</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>271</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>272</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>273</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>274</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>275</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>277</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>278</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>279</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>280</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>281</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>282</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>283</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>284</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>285</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>286</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>287</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>288</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>289</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>290</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>291</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>292</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>293</v>
+      </c>
+      <c r="B298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>294</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>295</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>296</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>297</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>298</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>299</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>300</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>301</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>302</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>303</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>304</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>305</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>306</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>307</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>308</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>309</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>310</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>311</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>312</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>313</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>314</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>315</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>316</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>317</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>318</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>319</v>
+      </c>
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>320</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>321</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>322</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>323</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>324</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>325</v>
+      </c>
+      <c r="B330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>326</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>327</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>328</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>329</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>330</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>331</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>332</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>333</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>334</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>335</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>336</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>337</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>338</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>339</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>340</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>262</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>341</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>342</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>343</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>344</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>345</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>346</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>347</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>348</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>349</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>350</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>351</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>352</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>353</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>354</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>355</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>356</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>357</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>358</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>359</v>
+      </c>
+      <c r="B365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>360</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>361</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>362</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>363</v>
+      </c>
+      <c r="B369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>364</v>
+      </c>
+      <c r="B370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>365</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
